--- a/biology/Botanique/Hyophorbe/Hyophorbe.xlsx
+++ b/biology/Botanique/Hyophorbe/Hyophorbe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyophorbe est un genre de palmiers de la famille des Arecaceae natif de l'archipel des Mascareignes. Les dernières révisions de la classification dans la famille[1] place ce genre dans la sous-famille Arecoideae et dans la tribu Chamaedoreeae, en retirant la tribu  Hyophorbeae précédemment dans la sous-famille Ceroxyloideae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyophorbe est un genre de palmiers de la famille des Arecaceae natif de l'archipel des Mascareignes. Les dernières révisions de la classification dans la famille place ce genre dans la sous-famille Arecoideae et dans la tribu Chamaedoreeae, en retirant la tribu  Hyophorbeae précédemment dans la sous-famille Ceroxyloideae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Famille des Arecaceae
 Sous-famille des Arecoideae
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (8 juil. 2012)[2], World Checklist of Selected Plant Families (WCSP)  (8 juil. 2012)[3] et NCBI  (8 juil. 2012)[4], ce genre contient les 5 espèces suivantes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (8 juil. 2012), World Checklist of Selected Plant Families (WCSP)  (8 juil. 2012) et NCBI  (8 juil. 2012), ce genre contient les 5 espèces suivantes :
 Hyophorbe amaricaulis Mart. (1849)
 Hyophorbe indica Gaertn. (1791)
 Hyophorbe lagenicaulis (L.H.Bailey) H.E.Moore (1976)
